--- a/notebooks/ABCB7/input/abcb7-individuals.xlsx
+++ b/notebooks/ABCB7/input/abcb7-individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/ABCB7/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD3D0CC-39D5-9747-8A4C-2D069FC6D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5C665-29CB-5D47-809E-1233054FC09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,7 +810,7 @@
   <dimension ref="A1:BO1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/notebooks/ABCB7/input/abcb7-individuals.xlsx
+++ b/notebooks/ABCB7/input/abcb7-individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/ABCB7/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5C665-29CB-5D47-809E-1233054FC09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79377DC-FDB6-F240-9457-D48EF849A678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="181">
   <si>
     <t>PMID</t>
   </si>
@@ -548,13 +548,28 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>ABCB7</t>
+  </si>
+  <si>
+    <t>HGNC:48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +579,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -589,9 +618,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,26 +837,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO1000"/>
+  <dimension ref="A1:BQ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" customWidth="1"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="67" width="10.6640625" customWidth="1"/>
+    <col min="1" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="15" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="69" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,193 +875,199 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>66</v>
@@ -1043,13 +1079,13 @@
         <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>66</v>
@@ -1058,181 +1094,187 @@
         <v>66</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -1249,34 +1291,34 @@
         <v>128</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>134</v>
@@ -1285,40 +1327,40 @@
         <v>134</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>134</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>134</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>134</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>134</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>134</v>
@@ -1330,13 +1372,13 @@
         <v>134</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>134</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>134</v>
@@ -1348,10 +1390,10 @@
         <v>134</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>70</v>
@@ -1431,8 +1473,14 @@
       <c r="BO3" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -1449,34 +1497,34 @@
         <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>134</v>
@@ -1518,10 +1566,10 @@
         <v>134</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>70</v>
@@ -1542,16 +1590,16 @@
         <v>70</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>70</v>
@@ -1631,8 +1679,14 @@
       <c r="BO4" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>124</v>
       </c>
@@ -1649,52 +1703,52 @@
         <v>128</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>134</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>70</v>
@@ -1706,10 +1760,10 @@
         <v>70</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>134</v>
@@ -1718,7 +1772,7 @@
         <v>134</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>134</v>
@@ -1739,19 +1793,19 @@
         <v>70</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>70</v>
@@ -1831,8 +1885,14 @@
       <c r="BO5" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>124</v>
       </c>
@@ -1849,34 +1909,34 @@
         <v>128</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>134</v>
@@ -1885,7 +1945,7 @@
         <v>134</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>134</v>
@@ -1894,7 +1954,7 @@
         <v>70</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>70</v>
@@ -1906,7 +1966,7 @@
         <v>70</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>70</v>
@@ -1918,7 +1978,7 @@
         <v>70</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AE6" s="1" t="s">
         <v>70</v>
@@ -1927,19 +1987,19 @@
         <v>70</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>134</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL6" s="1" t="s">
         <v>70</v>
@@ -2031,8 +2091,14 @@
       <c r="BO6" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -2049,58 +2115,58 @@
         <v>128</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>134</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>134</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>70</v>
@@ -2115,22 +2181,22 @@
         <v>70</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>134</v>
@@ -2139,19 +2205,19 @@
         <v>134</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>134</v>
@@ -2169,10 +2235,10 @@
         <v>134</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AW7" s="1" t="s">
         <v>70</v>
@@ -2231,8 +2297,14 @@
       <c r="BO7" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
@@ -2249,32 +2321,32 @@
         <v>128</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="P8" s="1" t="s">
         <v>70</v>
       </c>
@@ -2288,16 +2360,16 @@
         <v>70</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>70</v>
@@ -2315,19 +2387,19 @@
         <v>70</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AD8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH8" s="1" t="s">
         <v>70</v>
@@ -2336,13 +2408,13 @@
         <v>134</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>70</v>
@@ -2360,19 +2432,19 @@
         <v>70</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AT8" s="1" t="s">
         <v>134</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AW8" s="1" t="s">
         <v>70</v>
@@ -2431,8 +2503,14 @@
       <c r="BO8" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>146</v>
       </c>
@@ -2449,32 +2527,32 @@
         <v>128</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P9" s="1" t="s">
         <v>70</v>
       </c>
@@ -2485,28 +2563,28 @@
         <v>70</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AA9" s="1" t="s">
         <v>70</v>
@@ -2515,19 +2593,19 @@
         <v>70</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>70</v>
@@ -2539,19 +2617,19 @@
         <v>70</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>70</v>
@@ -2563,19 +2641,19 @@
         <v>70</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AT9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AX9" s="1" t="s">
         <v>134</v>
@@ -2593,10 +2671,10 @@
         <v>134</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BE9" s="1" t="s">
         <v>70</v>
@@ -2631,8 +2709,14 @@
       <c r="BO9" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>146</v>
       </c>
@@ -2649,32 +2733,32 @@
         <v>128</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P10" s="1" t="s">
         <v>70</v>
       </c>
@@ -2685,7 +2769,7 @@
         <v>70</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>70</v>
@@ -2715,13 +2799,13 @@
         <v>70</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>70</v>
@@ -2742,16 +2826,16 @@
         <v>70</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>70</v>
@@ -2778,19 +2862,19 @@
         <v>70</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AZ10" s="1" t="s">
         <v>134</v>
       </c>
       <c r="BA10" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>70</v>
@@ -2831,8 +2915,14 @@
       <c r="BO10" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>146</v>
       </c>
@@ -2849,32 +2939,32 @@
         <v>128</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="P11" s="1" t="s">
         <v>70</v>
       </c>
@@ -2888,13 +2978,13 @@
         <v>70</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>70</v>
@@ -2945,13 +3035,13 @@
         <v>70</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>70</v>
@@ -2993,13 +3083,13 @@
         <v>70</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="BD11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BE11" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BF11" s="1" t="s">
         <v>70</v>
@@ -3031,8 +3121,14 @@
       <c r="BO11" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>146</v>
       </c>
@@ -3049,32 +3145,32 @@
         <v>128</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P12" s="1" t="s">
         <v>70</v>
       </c>
@@ -3085,7 +3181,7 @@
         <v>70</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>70</v>
@@ -3106,13 +3202,13 @@
         <v>70</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>70</v>
@@ -3127,7 +3223,7 @@
         <v>70</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH12" s="1" t="s">
         <v>70</v>
@@ -3136,22 +3232,22 @@
         <v>134</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL12" s="1" t="s">
         <v>134</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>70</v>
@@ -3163,7 +3259,7 @@
         <v>70</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AT12" s="1" t="s">
         <v>70</v>
@@ -3175,7 +3271,7 @@
         <v>70</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AX12" s="1" t="s">
         <v>70</v>
@@ -3231,8 +3327,14 @@
       <c r="BO12" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ12" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>154</v>
       </c>
@@ -3249,32 +3351,32 @@
         <v>128</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="P13" s="1" t="s">
         <v>70</v>
       </c>
@@ -3297,16 +3399,16 @@
         <v>70</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>70</v>
@@ -3315,7 +3417,7 @@
         <v>70</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>70</v>
@@ -3339,19 +3441,19 @@
         <v>70</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>70</v>
@@ -3369,22 +3471,22 @@
         <v>70</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AV13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BA13" s="1" t="s">
         <v>70</v>
@@ -3431,8 +3533,14 @@
       <c r="BO13" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="14" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>157</v>
       </c>
@@ -3452,43 +3560,43 @@
         <v>128</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>134</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>70</v>
@@ -3530,7 +3638,7 @@
         <v>70</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH14" s="1" t="s">
         <v>70</v>
@@ -3542,43 +3650,43 @@
         <v>70</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AR14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AT14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AV14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AX14" s="1" t="s">
         <v>70</v>
@@ -3599,13 +3707,13 @@
         <v>70</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="BE14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BG14" s="1" t="s">
         <v>70</v>
@@ -3634,8 +3742,14 @@
       <c r="BO14" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ14" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="15" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>157</v>
       </c>
@@ -3655,43 +3769,43 @@
         <v>128</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P15" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>134</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>70</v>
@@ -3733,7 +3847,7 @@
         <v>70</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH15" s="1" t="s">
         <v>70</v>
@@ -3745,25 +3859,25 @@
         <v>70</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AR15" s="1" t="s">
         <v>70</v>
@@ -3781,7 +3895,7 @@
         <v>70</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AX15" s="1" t="s">
         <v>70</v>
@@ -3802,13 +3916,13 @@
         <v>70</v>
       </c>
       <c r="BD15" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="BE15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BF15" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BG15" s="1" t="s">
         <v>70</v>
@@ -3837,8 +3951,14 @@
       <c r="BO15" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ15" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="16" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>157</v>
       </c>
@@ -3858,43 +3978,43 @@
         <v>128</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P16" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>134</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>70</v>
@@ -3936,7 +4056,7 @@
         <v>70</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>70</v>
@@ -3948,25 +4068,25 @@
         <v>70</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL16" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN16" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AR16" s="1" t="s">
         <v>70</v>
@@ -3984,7 +4104,7 @@
         <v>70</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AX16" s="1" t="s">
         <v>70</v>
@@ -4005,7 +4125,7 @@
         <v>70</v>
       </c>
       <c r="BD16" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="BE16" s="1" t="s">
         <v>70</v>
@@ -4017,7 +4137,7 @@
         <v>70</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BI16" s="1" t="s">
         <v>70</v>
@@ -4040,8 +4160,14 @@
       <c r="BO16" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="17" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -4061,43 +4187,43 @@
         <v>128</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P17" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>134</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>70</v>
@@ -4139,7 +4265,7 @@
         <v>70</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>70</v>
@@ -4151,43 +4277,43 @@
         <v>70</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AR17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AT17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AV17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AX17" s="1" t="s">
         <v>70</v>
@@ -4208,10 +4334,10 @@
         <v>70</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="BE17" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="BF17" s="1" t="s">
         <v>134</v>
@@ -4223,10 +4349,10 @@
         <v>134</v>
       </c>
       <c r="BI17" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BJ17" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BK17" s="1" t="s">
         <v>70</v>
@@ -4243,8 +4369,14 @@
       <c r="BO17" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="18" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>157</v>
       </c>
@@ -4264,43 +4396,43 @@
         <v>128</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P18" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>134</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>70</v>
@@ -4342,7 +4474,7 @@
         <v>70</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>70</v>
@@ -4354,25 +4486,25 @@
         <v>70</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AR18" s="1" t="s">
         <v>70</v>
@@ -4390,7 +4522,7 @@
         <v>70</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AX18" s="1" t="s">
         <v>70</v>
@@ -4411,13 +4543,13 @@
         <v>70</v>
       </c>
       <c r="BD18" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="BE18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BF18" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BG18" s="1" t="s">
         <v>70</v>
@@ -4446,8 +4578,14 @@
       <c r="BO18" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="19" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>157</v>
       </c>
@@ -4467,43 +4605,43 @@
         <v>128</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P19" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>134</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>70</v>
@@ -4545,7 +4683,7 @@
         <v>70</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH19" s="1" t="s">
         <v>70</v>
@@ -4557,25 +4695,25 @@
         <v>70</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL19" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN19" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AR19" s="1" t="s">
         <v>70</v>
@@ -4593,7 +4731,7 @@
         <v>70</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AX19" s="1" t="s">
         <v>70</v>
@@ -4617,13 +4755,13 @@
         <v>70</v>
       </c>
       <c r="BE19" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="BF19" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BH19" s="1" t="s">
         <v>70</v>
@@ -4649,8 +4787,14 @@
       <c r="BO19" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BP19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ19" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="20" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>168</v>
       </c>
@@ -4667,29 +4811,32 @@
         <v>128</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P20" s="1" t="s">
         <v>70</v>
       </c>
@@ -4700,16 +4847,16 @@
         <v>70</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>70</v>
@@ -4733,43 +4880,43 @@
         <v>70</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AE20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AI20" s="1" t="s">
         <v>134</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AQ20" s="1" t="s">
         <v>70</v>
@@ -4778,7 +4925,7 @@
         <v>134</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AT20" s="1" t="s">
         <v>134</v>
@@ -4787,10 +4934,10 @@
         <v>134</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AX20" s="1" t="s">
         <v>70</v>
@@ -4814,22 +4961,22 @@
         <v>70</v>
       </c>
       <c r="BE20" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="BF20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="BH20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="BK20" s="1" t="s">
         <v>134</v>
@@ -4846,19 +4993,25 @@
       <c r="BO20" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="BP20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="21" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5828,6 +5981,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
